--- a/data/icd9_surveillance/syndromedefinitions_combined.xlsx
+++ b/data/icd9_surveillance/syndromedefinitions_combined.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slick\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ICD10SyndromeCodes\data\icd9_surveillance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="853" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fever" sheetId="4" r:id="rId1"/>
@@ -17,20 +17,19 @@
     <sheet name="Lesion" sheetId="7" r:id="rId3"/>
     <sheet name="Lymphadenitis" sheetId="9" r:id="rId4"/>
     <sheet name="Botulism-like" sheetId="10" r:id="rId5"/>
-    <sheet name="Gastrointestinal Total" sheetId="11" r:id="rId6"/>
-    <sheet name="Gastrointestinal Lower" sheetId="14" r:id="rId7"/>
-    <sheet name="Gastrointestinal Upper" sheetId="17" r:id="rId8"/>
-    <sheet name="Neurological" sheetId="18" r:id="rId9"/>
-    <sheet name="Rash" sheetId="21" r:id="rId10"/>
-    <sheet name="Respiratory" sheetId="22" r:id="rId11"/>
-    <sheet name="Sudden Death or Illness - ID" sheetId="26" r:id="rId12"/>
+    <sheet name="Gastrointestinal Lower" sheetId="14" r:id="rId6"/>
+    <sheet name="Gastrointestinal Upper" sheetId="17" r:id="rId7"/>
+    <sheet name="Neurological" sheetId="18" r:id="rId8"/>
+    <sheet name="Rash" sheetId="21" r:id="rId9"/>
+    <sheet name="Respiratory" sheetId="22" r:id="rId10"/>
+    <sheet name="Sudden Death or Illness" sheetId="26" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="679">
   <si>
     <t xml:space="preserve">ICD9CM
 </t>
@@ -1008,22 +1007,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">U or L
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">FOOD POISONING, OTHER BAC
 </t>
   </si>
   <si>
-    <t xml:space="preserve">L
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOOD POISONING     NOS
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">INTEST. INFECT BY OTHER B
 </t>
   </si>
@@ -1064,10 +1051,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">U
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">GASTRITIS, ACUTE
 </t>
   </si>
@@ -1076,19 +1059,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">GASTRITIS,W/O HEM. OTHER
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GASTRITIS,OTH SPEC. W/HEM
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">GASTRITIS/GASTRODUOD. W/O
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASTRITIS/DUODEN W/O HEMO
 </t>
   </si>
   <si>
@@ -1513,15 +1484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Lower GI
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">FOOD POISONING NOS
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper GI
 </t>
   </si>
   <si>
@@ -2791,7 +2754,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0_);\-#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0_);\-#,##0"/>
@@ -3420,7 +3383,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3698,11 +3661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4691,533 +4654,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="52.69921875" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>50.1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>50.2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>50.9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>51</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>51.1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>52.7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>52.8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>52.9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>57.8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>57.9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>695</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>695.1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>695.2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>695.89</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>695.9</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>692.9</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>782.1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>26.1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C23" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>26.9</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>51.2</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C25" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>51.9</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C26" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>53.2</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="C27" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="23.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>53.79</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C28" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>53.8</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C29" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>53.9</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C30" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>54</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C31" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>54.79</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="C32" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>54.8</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C33" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>54.9</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C34" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>55.79</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="C35" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>55.8</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C36" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>55.9</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C37" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>56.79</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C38" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>56.8</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C39" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>56.9</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C40" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>57</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C41" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>74.3</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C42" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>78</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="C43" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>82</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C44" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>83.2</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>695.3</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C46" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>695.4</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C47" s="4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
@@ -5244,7 +4684,7 @@
         <v>20.3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -5255,7 +4695,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -5266,7 +4706,7 @@
         <v>20.5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -5277,7 +4717,7 @@
         <v>21.2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -5288,7 +4728,7 @@
         <v>22.1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -5299,7 +4739,7 @@
         <v>460</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -5310,7 +4750,7 @@
         <v>462</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -5321,7 +4761,7 @@
         <v>463</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -5332,7 +4772,7 @@
         <v>464</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -5343,7 +4783,7 @@
         <v>464.01</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -5354,7 +4794,7 @@
         <v>464.1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -5365,7 +4805,7 @@
         <v>464.11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -5376,7 +4816,7 @@
         <v>464.2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -5387,7 +4827,7 @@
         <v>464.21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -5398,7 +4838,7 @@
         <v>464.3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -5409,7 +4849,7 @@
         <v>464.31</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -5420,7 +4860,7 @@
         <v>464.4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -5431,7 +4871,7 @@
         <v>464.5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -5442,7 +4882,7 @@
         <v>464.51</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -5453,7 +4893,7 @@
         <v>465</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -5464,7 +4904,7 @@
         <v>465.8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -5475,7 +4915,7 @@
         <v>465.9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -5486,7 +4926,7 @@
         <v>466</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -5497,7 +4937,7 @@
         <v>466.11</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -5508,7 +4948,7 @@
         <v>466.19</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -5519,7 +4959,7 @@
         <v>478.9</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -5530,7 +4970,7 @@
         <v>480.8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -5541,7 +4981,7 @@
         <v>480.9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -5552,7 +4992,7 @@
         <v>482.9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -5563,7 +5003,7 @@
         <v>483.8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -5574,7 +5014,7 @@
         <v>484.5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -5585,7 +5025,7 @@
         <v>484.8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -5596,7 +5036,7 @@
         <v>485</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -5607,7 +5047,7 @@
         <v>486</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -5618,7 +5058,7 @@
         <v>490</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -5629,7 +5069,7 @@
         <v>511</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -5640,7 +5080,7 @@
         <v>511.1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -5662,7 +5102,7 @@
         <v>513</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -5673,7 +5113,7 @@
         <v>513.1</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -5684,7 +5124,7 @@
         <v>518.4</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
@@ -5695,7 +5135,7 @@
         <v>518.84</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -5706,7 +5146,7 @@
         <v>519.20000000000005</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -5717,7 +5157,7 @@
         <v>519.29999999999995</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -5728,7 +5168,7 @@
         <v>769</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
@@ -5739,7 +5179,7 @@
         <v>786</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -5750,7 +5190,7 @@
         <v>786.06</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -5761,7 +5201,7 @@
         <v>786.1</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -5772,7 +5212,7 @@
         <v>786.2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -5794,7 +5234,7 @@
         <v>786.52</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -5805,7 +5245,7 @@
         <v>799.1</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -5832,7 +5272,7 @@
         <v>381</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C56" s="4">
         <v>2</v>
@@ -5843,7 +5283,7 @@
         <v>381.01</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C57" s="4">
         <v>2</v>
@@ -5854,7 +5294,7 @@
         <v>381.03</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C58" s="4">
         <v>2</v>
@@ -5865,7 +5305,7 @@
         <v>381.04</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C59" s="4">
         <v>2</v>
@@ -5876,7 +5316,7 @@
         <v>381.4</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C60" s="4">
         <v>2</v>
@@ -5887,7 +5327,7 @@
         <v>381.5</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C61" s="4">
         <v>2</v>
@@ -5898,7 +5338,7 @@
         <v>381.51</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C62" s="4">
         <v>2</v>
@@ -5909,7 +5349,7 @@
         <v>382</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C63" s="4">
         <v>2</v>
@@ -5920,7 +5360,7 @@
         <v>382</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C64" s="4">
         <v>2</v>
@@ -5931,7 +5371,7 @@
         <v>382</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C65" s="4">
         <v>2</v>
@@ -5942,7 +5382,7 @@
         <v>382.01</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C66" s="4">
         <v>2</v>
@@ -5953,7 +5393,7 @@
         <v>382.02</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C67" s="4">
         <v>2</v>
@@ -5964,7 +5404,7 @@
         <v>382.4</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C68" s="4">
         <v>2</v>
@@ -5975,7 +5415,7 @@
         <v>382.9</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C69" s="4">
         <v>2</v>
@@ -5986,7 +5426,7 @@
         <v>461</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C70" s="4">
         <v>2</v>
@@ -5997,7 +5437,7 @@
         <v>461.1</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C71" s="4">
         <v>2</v>
@@ -6008,7 +5448,7 @@
         <v>461.2</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C72" s="4">
         <v>2</v>
@@ -6019,7 +5459,7 @@
         <v>461.3</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C73" s="4">
         <v>2</v>
@@ -6030,7 +5470,7 @@
         <v>461.8</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C74" s="4">
         <v>2</v>
@@ -6041,7 +5481,7 @@
         <v>461.9</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C75" s="4">
         <v>2</v>
@@ -6052,7 +5492,7 @@
         <v>493</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C76" s="4">
         <v>2</v>
@@ -6063,7 +5503,7 @@
         <v>493.01</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -6074,7 +5514,7 @@
         <v>493.02</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C78" s="4">
         <v>2</v>
@@ -6085,7 +5525,7 @@
         <v>493.1</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C79" s="4">
         <v>2</v>
@@ -6096,7 +5536,7 @@
         <v>493.11</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C80" s="4">
         <v>2</v>
@@ -6107,7 +5547,7 @@
         <v>493.12</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C81" s="4">
         <v>2</v>
@@ -6118,7 +5558,7 @@
         <v>493.9</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C82" s="4">
         <v>2</v>
@@ -6129,7 +5569,7 @@
         <v>493.91</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C83" s="4">
         <v>2</v>
@@ -6140,7 +5580,7 @@
         <v>493.92</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C84" s="4">
         <v>2</v>
@@ -6151,7 +5591,7 @@
         <v>511.9</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="C85" s="4">
         <v>2</v>
@@ -6162,7 +5602,7 @@
         <v>514</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C86" s="4">
         <v>2</v>
@@ -6173,7 +5613,7 @@
         <v>518</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C87" s="4">
         <v>2</v>
@@ -6184,7 +5624,7 @@
         <v>518.80999999999995</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="C88" s="4">
         <v>2</v>
@@ -6195,7 +5635,7 @@
         <v>518.82000000000005</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C89" s="4">
         <v>2</v>
@@ -6206,7 +5646,7 @@
         <v>782.5</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C90" s="4">
         <v>2</v>
@@ -6217,7 +5657,7 @@
         <v>784.1</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="C91" s="4">
         <v>2</v>
@@ -6228,7 +5668,7 @@
         <v>786.05</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C92" s="4">
         <v>2</v>
@@ -6239,7 +5679,7 @@
         <v>786.07</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="C93" s="4">
         <v>2</v>
@@ -6250,7 +5690,7 @@
         <v>786.09</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C94" s="4">
         <v>2</v>
@@ -6261,7 +5701,7 @@
         <v>786.5</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -6272,7 +5712,7 @@
         <v>786.51</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="C96" s="4">
         <v>2</v>
@@ -6283,7 +5723,7 @@
         <v>786.59</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C97" s="4">
         <v>2</v>
@@ -6294,7 +5734,7 @@
         <v>786.7</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C98" s="4">
         <v>2</v>
@@ -6305,7 +5745,7 @@
         <v>786.9</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C99" s="4">
         <v>2</v>
@@ -6321,7 +5761,7 @@
         <v>3.22</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C101" s="4">
         <v>3</v>
@@ -6332,7 +5772,7 @@
         <v>31</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="C102" s="4">
         <v>3</v>
@@ -6343,7 +5783,7 @@
         <v>31.8</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C103" s="4">
         <v>3</v>
@@ -6354,7 +5794,7 @@
         <v>31.9</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C104" s="4">
         <v>3</v>
@@ -6365,7 +5805,7 @@
         <v>32</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C105" s="4">
         <v>3</v>
@@ -6376,7 +5816,7 @@
         <v>32.1</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C106" s="4">
         <v>3</v>
@@ -6387,7 +5827,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C107" s="4">
         <v>3</v>
@@ -6398,7 +5838,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C108" s="4">
         <v>3</v>
@@ -6409,7 +5849,7 @@
         <v>32.89</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C109" s="4">
         <v>3</v>
@@ -6420,7 +5860,7 @@
         <v>32.9</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C110" s="4">
         <v>3</v>
@@ -6431,7 +5871,7 @@
         <v>33</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C111" s="4">
         <v>3</v>
@@ -6442,7 +5882,7 @@
         <v>33.1</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C112" s="4">
         <v>3</v>
@@ -6453,7 +5893,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C113" s="4">
         <v>3</v>
@@ -6464,7 +5904,7 @@
         <v>33.9</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="C114" s="4">
         <v>3</v>
@@ -6475,7 +5915,7 @@
         <v>34</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="C115" s="4">
         <v>3</v>
@@ -6486,7 +5926,7 @@
         <v>52.1</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="C116" s="4">
         <v>3</v>
@@ -6497,7 +5937,7 @@
         <v>55.1</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="C117" s="4">
         <v>3</v>
@@ -6508,7 +5948,7 @@
         <v>55.2</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="C118" s="4">
         <v>3</v>
@@ -6519,7 +5959,7 @@
         <v>73</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="C119" s="4">
         <v>3</v>
@@ -6530,7 +5970,7 @@
         <v>73.7</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C120" s="4">
         <v>3</v>
@@ -6541,7 +5981,7 @@
         <v>73.8</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="C121" s="4">
         <v>3</v>
@@ -6552,7 +5992,7 @@
         <v>73.900000000000006</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C122" s="4">
         <v>3</v>
@@ -6563,7 +6003,7 @@
         <v>79</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C123" s="4">
         <v>3</v>
@@ -6574,7 +6014,7 @@
         <v>79.099999999999994</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C124" s="4">
         <v>3</v>
@@ -6585,7 +6025,7 @@
         <v>79.2</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="C125" s="4">
         <v>3</v>
@@ -6596,7 +6036,7 @@
         <v>79.3</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C126" s="4">
         <v>3</v>
@@ -6607,7 +6047,7 @@
         <v>79.599999999999994</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C127" s="4">
         <v>3</v>
@@ -6618,7 +6058,7 @@
         <v>79.81</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="C128" s="4">
         <v>3</v>
@@ -6629,7 +6069,7 @@
         <v>98.6</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C129" s="4">
         <v>3</v>
@@ -6640,7 +6080,7 @@
         <v>114.5</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="C130" s="4">
         <v>3</v>
@@ -6651,7 +6091,7 @@
         <v>114.9</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="C131" s="4">
         <v>3</v>
@@ -6662,7 +6102,7 @@
         <v>115</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="C132" s="4">
         <v>3</v>
@@ -6673,7 +6113,7 @@
         <v>115.05</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="C133" s="4">
         <v>3</v>
@@ -6684,7 +6124,7 @@
         <v>115.09</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C134" s="4">
         <v>3</v>
@@ -6695,7 +6135,7 @@
         <v>115.1</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C135" s="4">
         <v>3</v>
@@ -6706,7 +6146,7 @@
         <v>115.15</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C136" s="4">
         <v>3</v>
@@ -6717,7 +6157,7 @@
         <v>115.9</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C137" s="4">
         <v>3</v>
@@ -6728,7 +6168,7 @@
         <v>115.95</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C138" s="4">
         <v>3</v>
@@ -6739,7 +6179,7 @@
         <v>115.99</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C139" s="4">
         <v>3</v>
@@ -6750,7 +6190,7 @@
         <v>116</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="C140" s="4">
         <v>3</v>
@@ -6761,7 +6201,7 @@
         <v>116.1</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="C141" s="4">
         <v>3</v>
@@ -6783,7 +6223,7 @@
         <v>117.3</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="C143" s="4">
         <v>3</v>
@@ -6794,7 +6234,7 @@
         <v>117.5</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C144" s="4">
         <v>3</v>
@@ -6805,7 +6245,7 @@
         <v>130.4</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="C145" s="4">
         <v>3</v>
@@ -6816,7 +6256,7 @@
         <v>136.30000000000001</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -6827,7 +6267,7 @@
         <v>480</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C147" s="4">
         <v>3</v>
@@ -6838,7 +6278,7 @@
         <v>480.1</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -6849,7 +6289,7 @@
         <v>480.2</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="C149" s="4">
         <v>3</v>
@@ -6860,7 +6300,7 @@
         <v>481</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C150" s="4">
         <v>3</v>
@@ -6871,7 +6311,7 @@
         <v>482</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C151" s="4">
         <v>3</v>
@@ -6882,7 +6322,7 @@
         <v>482.1</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="C152" s="4">
         <v>3</v>
@@ -6893,7 +6333,7 @@
         <v>482.2</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="C153" s="4">
         <v>3</v>
@@ -6904,7 +6344,7 @@
         <v>482.3</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="C154" s="4">
         <v>3</v>
@@ -6915,7 +6355,7 @@
         <v>482.31</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="C155" s="4">
         <v>3</v>
@@ -6926,7 +6366,7 @@
         <v>482.32</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="C156" s="4">
         <v>3</v>
@@ -6937,7 +6377,7 @@
         <v>482.39</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="C157" s="4">
         <v>3</v>
@@ -6948,7 +6388,7 @@
         <v>482.4</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="C158" s="4">
         <v>3</v>
@@ -6959,7 +6399,7 @@
         <v>482.41</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="C159" s="4">
         <v>3</v>
@@ -6970,7 +6410,7 @@
         <v>482.49</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="C160" s="4">
         <v>3</v>
@@ -6981,7 +6421,7 @@
         <v>482.81</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="C161" s="4">
         <v>3</v>
@@ -6992,7 +6432,7 @@
         <v>482.82</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C162" s="4">
         <v>3</v>
@@ -7003,7 +6443,7 @@
         <v>482.83</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="C163" s="4">
         <v>3</v>
@@ -7014,7 +6454,7 @@
         <v>482.84</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="C164" s="4">
         <v>3</v>
@@ -7025,7 +6465,7 @@
         <v>482.89</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C165" s="4">
         <v>3</v>
@@ -7036,7 +6476,7 @@
         <v>483</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="C166" s="4">
         <v>3</v>
@@ -7047,7 +6487,7 @@
         <v>483.1</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="C167" s="4">
         <v>3</v>
@@ -7058,7 +6498,7 @@
         <v>484.1</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C168" s="4">
         <v>3</v>
@@ -7069,7 +6509,7 @@
         <v>484.3</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="C169" s="4">
         <v>3</v>
@@ -7080,7 +6520,7 @@
         <v>484.6</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C170" s="4">
         <v>3</v>
@@ -7091,7 +6531,7 @@
         <v>484.7</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C171" s="4">
         <v>3</v>
@@ -7102,7 +6542,7 @@
         <v>487</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="C172" s="4">
         <v>3</v>
@@ -7113,7 +6553,7 @@
         <v>487.1</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="C173" s="4">
         <v>3</v>
@@ -7124,7 +6564,7 @@
         <v>487.8</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C174" s="4">
         <v>3</v>
@@ -7135,8 +6575,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7166,7 +6606,7 @@
         <v>780.01</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -7177,7 +6617,7 @@
         <v>785.5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -7188,7 +6628,7 @@
         <v>785.59</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -7199,7 +6639,7 @@
         <v>798.1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -7210,7 +6650,7 @@
         <v>798.2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -7221,7 +6661,7 @@
         <v>798.9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -7232,7 +6672,7 @@
         <v>799.9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -7248,7 +6688,7 @@
         <v>656.4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -7259,7 +6699,7 @@
         <v>656.41</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
@@ -7270,7 +6710,7 @@
         <v>656.43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
@@ -7281,7 +6721,7 @@
         <v>761.8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -7292,7 +6732,7 @@
         <v>768</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
@@ -7303,7 +6743,7 @@
         <v>779.9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
@@ -7314,7 +6754,7 @@
         <v>798</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
@@ -7326,7 +6766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7728,7 +7168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8550,7 +7990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8870,7 +8310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9360,1807 +8800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="55.296875" customWidth="1"/>
-    <col min="3" max="4" width="12.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>5.89</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>8.49</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>8.69</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>22.2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>78.819999999999993</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>535</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>535.01</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>535.4</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>535.41</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>535.5</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>535.51</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>535.6</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>535.61</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>536.20000000000005</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>555</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>555.1</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>555.20000000000005</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>558.20000000000005</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>558.9</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>569.9</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>787.01</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>787.02</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>787.03</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>787.3</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>787.91</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>567.1</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" s="4">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>567.20000000000005</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C36" s="4">
-        <v>2</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>567.79999999999995</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C37" s="4">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>567.9</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" s="4">
-        <v>2</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>568.9</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" s="4">
-        <v>2</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>578</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="4">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>787.1</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C41" s="4">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>787.2</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C42" s="4">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>789</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C43" s="4">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>789.01</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C44" s="4">
-        <v>2</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>789.02</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C45" s="4">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>789.03</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C46" s="4">
-        <v>2</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>789.04</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C47" s="4">
-        <v>2</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>789.05</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C48" s="4">
-        <v>2</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>789.06</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C49" s="4">
-        <v>2</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>789.07</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C50" s="4">
-        <v>2</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>789.09</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C51" s="4">
-        <v>2</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
-        <v>789.6</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C52" s="4">
-        <v>2</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>789.61</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C53" s="4">
-        <v>2</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>789.62</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C54" s="4">
-        <v>2</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
-        <v>789.63</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C55" s="4">
-        <v>2</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>789.64</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C56" s="4">
-        <v>2</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>789.65</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C57" s="4">
-        <v>2</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
-        <v>789.66</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C58" s="4">
-        <v>2</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
-        <v>789.67</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C59" s="4">
-        <v>2</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
-        <v>789.69</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C60" s="4">
-        <v>2</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>789.9</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C61" s="4">
-        <v>2</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>1</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C63" s="4">
-        <v>3</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C64" s="4">
-        <v>3</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C65" s="4">
-        <v>3</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>3</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C66" s="4">
-        <v>3</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C67" s="4">
-        <v>3</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
-        <v>3.29</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C68" s="4">
-        <v>3</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C69" s="4">
-        <v>3</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C70" s="4">
-        <v>3</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>4</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C71" s="4">
-        <v>3</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C72" s="4">
-        <v>3</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C73" s="4">
-        <v>3</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C74" s="4">
-        <v>3</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C75" s="4">
-        <v>3</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C76" s="4">
-        <v>3</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>5</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C77" s="4">
-        <v>3</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" s="4">
-        <v>3</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C79" s="4">
-        <v>3</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C80" s="4">
-        <v>3</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A81" s="5">
-        <v>5.81</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C81" s="4">
-        <v>3</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>6</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C82" s="4">
-        <v>3</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C83" s="4">
-        <v>3</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C84" s="4">
-        <v>3</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>7</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C85" s="4">
-        <v>3</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C86" s="4">
-        <v>3</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C87" s="4">
-        <v>3</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C88" s="4">
-        <v>3</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C89" s="4">
-        <v>3</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C90" s="4">
-        <v>3</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C91" s="4">
-        <v>3</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C92" s="4">
-        <v>3</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A93" s="5">
-        <v>8</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C93" s="4">
-        <v>3</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A94" s="5">
-        <v>8.01</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C94" s="4">
-        <v>3</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A95" s="5">
-        <v>8.02</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C95" s="4">
-        <v>3</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A96" s="5">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C96" s="4">
-        <v>3</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A97" s="5">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C97" s="4">
-        <v>3</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
-        <v>8.09</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C98" s="4">
-        <v>3</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C99" s="4">
-        <v>3</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C100" s="4">
-        <v>3</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C101" s="4">
-        <v>3</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A102" s="5">
-        <v>8.41</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C102" s="4">
-        <v>3</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A103" s="5">
-        <v>8.43</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C103" s="4">
-        <v>3</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A104" s="5">
-        <v>8.44</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C104" s="4">
-        <v>3</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A105" s="5">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C105" s="4">
-        <v>3</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A106" s="5">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C106" s="4">
-        <v>3</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A107" s="5">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C107" s="4">
-        <v>3</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A108" s="5">
-        <v>8.61</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C108" s="4">
-        <v>3</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A109" s="5">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C109" s="4">
-        <v>3</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A110" s="5">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C110" s="4">
-        <v>3</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A111" s="5">
-        <v>8.64</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C111" s="4">
-        <v>3</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A112" s="5">
-        <v>8.65</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C112" s="4">
-        <v>3</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A113" s="5">
-        <v>8.66</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C113" s="4">
-        <v>3</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="39" x14ac:dyDescent="0.3">
-      <c r="A114" s="8">
-        <v>8.67</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C114" s="4">
-        <v>3</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>21.1</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C115" s="4">
-        <v>3</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>127</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C116" s="4">
-        <v>3</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>127.1</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C117" s="4">
-        <v>3</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>127.2</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C118" s="4">
-        <v>3</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>127.3</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C119" s="4">
-        <v>3</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
-        <v>127.4</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C120" s="4">
-        <v>3</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>127.5</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C121" s="4">
-        <v>3</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
-        <v>127.6</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C122" s="4">
-        <v>3</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
-        <v>127.7</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C123" s="4">
-        <v>3</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
-        <v>127.8</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C124" s="4">
-        <v>3</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
-        <v>127.9</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C125" s="4">
-        <v>3</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A126" s="4">
-        <v>129</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C126" s="4">
-        <v>3</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
-        <v>567</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C127" s="4">
-        <v>3</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
-        <v>787.4</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C128" s="4">
-        <v>3</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D111"/>
-  <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -11168,10 +8812,9 @@
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="55.296875" customWidth="1"/>
     <col min="3" max="3" width="12.796875" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11181,1532 +8824,1203 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>5.89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5.9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>8.49</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>8.5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>8.69</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>9.1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9.1999999999999993</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9.3000000000000007</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>22.2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>555</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>555.1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>555.20000000000005</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>558.20000000000005</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>558.9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>569.9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>787.3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>787.91</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>567.1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>567.20000000000005</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>567.79999999999995</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>567.9</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>568.9</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>789</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>789.01</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>789.02</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>789.03</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>789.04</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>789.05</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>789.06</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>789.07</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>789.09</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>789.6</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>789.61</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C37" s="4">
         <v>2</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>789.62</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>789.63</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>789.64</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C40" s="4">
         <v>2</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>789.65</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C41" s="4">
         <v>2</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>789.66</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>789.67</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C43" s="4">
         <v>2</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>789.69</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>789.9</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C45" s="4">
         <v>2</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C47" s="4">
         <v>3</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C48" s="4">
         <v>3</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>1.9</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C49" s="4">
         <v>3</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>3</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C50" s="4">
         <v>3</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>3.2</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C51" s="4">
         <v>3</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>3.29</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C52" s="4">
         <v>3</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>3.8</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C53" s="4">
         <v>3</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>3.9</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C54" s="4">
         <v>3</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C56" s="4">
         <v>3</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>4.2</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C57" s="4">
         <v>3</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>4.3</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C58" s="4">
         <v>3</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>4.8</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C59" s="4">
         <v>3</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>4.9000000000000004</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C60" s="4">
         <v>3</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>5.2</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C61" s="4">
         <v>3</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>5.3</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C62" s="4">
         <v>3</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>5.4</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C63" s="4">
         <v>3</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>5.81</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C64" s="4">
         <v>3</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>6</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C65" s="4">
         <v>3</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>6.8</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C66" s="4">
         <v>3</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>6.9</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C67" s="4">
         <v>3</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>7</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C68" s="4">
         <v>3</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>7.1</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>7.2</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>7.3</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C71" s="4">
         <v>3</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>7.4</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C72" s="4">
         <v>3</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>7.5</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>7.8</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C74" s="4">
         <v>3</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>7.9</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C75" s="4">
         <v>3</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>8</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C76" s="4">
         <v>3</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>8.01</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C77" s="4">
         <v>3</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>8.02</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C78" s="4">
         <v>3</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>8.0299999999999994</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C79" s="4">
         <v>3</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>8.0399999999999991</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C80" s="4">
         <v>3</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>8.09</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C81" s="4">
         <v>3</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>8.1</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C82" s="4">
         <v>3</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C83" s="4">
         <v>3</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>8.3000000000000007</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C84" s="4">
         <v>3</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>8.41</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C85" s="4">
         <v>3</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>8.43</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C86" s="4">
         <v>3</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>8.44</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C87" s="4">
         <v>3</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>8.4499999999999993</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C88" s="4">
         <v>3</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>8.4600000000000009</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C89" s="4">
         <v>3</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>8.4700000000000006</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C90" s="4">
         <v>3</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>8.61</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C91" s="4">
         <v>3</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>8.6199999999999992</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C92" s="4">
         <v>3</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>8.6300000000000008</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C93" s="4">
         <v>3</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>8.64</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C94" s="4">
         <v>3</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>8.65</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C95" s="4">
         <v>3</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>8.66</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C96" s="4">
         <v>3</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>8.67</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C97" s="4">
         <v>3</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>21.1</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C98" s="4">
         <v>3</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>127</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C99" s="4">
         <v>3</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>127.1</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C100" s="4">
         <v>3</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>127.2</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C101" s="4">
         <v>3</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>127.3</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C102" s="4">
         <v>3</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>127.4</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C103" s="4">
         <v>3</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>127.5</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C104" s="4">
         <v>3</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>127.6</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C105" s="4">
         <v>3</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>127.7</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C106" s="4">
         <v>3</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>127.8</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C107" s="4">
         <v>3</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>127.9</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C108" s="4">
         <v>3</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>129</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C109" s="4">
         <v>3</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>567</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C110" s="4">
         <v>3</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:3" ht="26" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>787.4</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C111" s="4">
         <v>3</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -12714,12 +10028,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -12727,10 +10041,9 @@
     <col min="1" max="1" width="12.19921875" customWidth="1"/>
     <col min="2" max="2" width="55.296875" customWidth="1"/>
     <col min="3" max="3" width="12.796875" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12740,199 +10053,156 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>78.819999999999993</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>535</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>535.01</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>535.4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>535.41</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>535.5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>535.51</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>535.6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>535.61</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>536.20000000000005</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>787.01</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>787.02</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>787.03</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>578</v>
       </c>
@@ -12942,25 +10212,19 @@
       <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>787.1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>787.2</v>
       </c>
@@ -12970,28 +10234,21 @@
       <c r="C18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C20" s="4">
         <v>3</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -12999,12 +10256,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:C98"/>
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -13030,7 +10287,7 @@
         <v>47.8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -13041,7 +10298,7 @@
         <v>47.9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -13052,7 +10309,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -13063,7 +10320,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -13074,7 +10331,7 @@
         <v>49.9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -13085,7 +10342,7 @@
         <v>320.89999999999998</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -13096,7 +10353,7 @@
         <v>321.2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -13107,7 +10364,7 @@
         <v>322</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -13118,7 +10375,7 @@
         <v>322.10000000000002</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -13129,7 +10386,7 @@
         <v>322.89999999999998</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -13140,7 +10397,7 @@
         <v>323.8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -13151,7 +10408,7 @@
         <v>323.89999999999998</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -13162,7 +10419,7 @@
         <v>348.3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -13173,7 +10430,7 @@
         <v>781.6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -13189,7 +10446,7 @@
         <v>293</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -13200,7 +10457,7 @@
         <v>293.10000000000002</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -13211,7 +10468,7 @@
         <v>307.81</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
@@ -13222,7 +10479,7 @@
         <v>780.02</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
@@ -13233,7 +10490,7 @@
         <v>780.09</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -13244,7 +10501,7 @@
         <v>780.39</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
@@ -13255,7 +10512,7 @@
         <v>784</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
@@ -13282,7 +10539,7 @@
         <v>3.21</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C26" s="4">
         <v>3</v>
@@ -13293,7 +10550,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C27" s="4">
         <v>3</v>
@@ -13304,7 +10561,7 @@
         <v>36.1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C28" s="4">
         <v>3</v>
@@ -13315,7 +10572,7 @@
         <v>36.200000000000003</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
@@ -13326,7 +10583,7 @@
         <v>36.89</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C30" s="4">
         <v>3</v>
@@ -13337,7 +10594,7 @@
         <v>36.9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -13348,7 +10605,7 @@
         <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C32" s="4">
         <v>3</v>
@@ -13359,7 +10616,7 @@
         <v>47.1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C33" s="4">
         <v>3</v>
@@ -13370,7 +10627,7 @@
         <v>49.1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C34" s="4">
         <v>3</v>
@@ -13381,7 +10638,7 @@
         <v>49.8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C35" s="4">
         <v>3</v>
@@ -13392,7 +10649,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
@@ -13403,7 +10660,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C37" s="4">
         <v>3</v>
@@ -13414,7 +10671,7 @@
         <v>53.1</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C38" s="4">
         <v>3</v>
@@ -13425,7 +10682,7 @@
         <v>54.3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C39" s="4">
         <v>3</v>
@@ -13436,7 +10693,7 @@
         <v>54.72</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C40" s="4">
         <v>3</v>
@@ -13447,7 +10704,7 @@
         <v>55</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C41" s="4">
         <v>3</v>
@@ -13458,7 +10715,7 @@
         <v>56</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C42" s="4">
         <v>3</v>
@@ -13469,7 +10726,7 @@
         <v>56.01</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C43" s="4">
         <v>3</v>
@@ -13480,7 +10737,7 @@
         <v>56.09</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C44" s="4">
         <v>3</v>
@@ -13502,7 +10759,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C46" s="4">
         <v>3</v>
@@ -13513,7 +10770,7 @@
         <v>62.1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C47" s="4">
         <v>3</v>
@@ -13524,7 +10781,7 @@
         <v>62.2</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C48" s="4">
         <v>3</v>
@@ -13535,7 +10792,7 @@
         <v>62.3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C49" s="4">
         <v>3</v>
@@ -13546,7 +10803,7 @@
         <v>62.4</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C50" s="4">
         <v>3</v>
@@ -13557,7 +10814,7 @@
         <v>62.5</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C51" s="4">
         <v>3</v>
@@ -13568,7 +10825,7 @@
         <v>62.8</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C52" s="4">
         <v>3</v>
@@ -13579,7 +10836,7 @@
         <v>62.9</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C53" s="4">
         <v>3</v>
@@ -13590,7 +10847,7 @@
         <v>63</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C54" s="4">
         <v>3</v>
@@ -13601,7 +10858,7 @@
         <v>63.1</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
@@ -13612,7 +10869,7 @@
         <v>63.2</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C56" s="4">
         <v>3</v>
@@ -13623,7 +10880,7 @@
         <v>63.8</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C57" s="4">
         <v>3</v>
@@ -13634,7 +10891,7 @@
         <v>63.9</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C58" s="4">
         <v>3</v>
@@ -13645,7 +10902,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C59" s="4">
         <v>3</v>
@@ -13656,7 +10913,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C60" s="4">
         <v>3</v>
@@ -13667,7 +10924,7 @@
         <v>71</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C61" s="4">
         <v>3</v>
@@ -13678,7 +10935,7 @@
         <v>72.099999999999994</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C62" s="4">
         <v>3</v>
@@ -13689,7 +10946,7 @@
         <v>72.2</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C63" s="4">
         <v>3</v>
@@ -13700,7 +10957,7 @@
         <v>84.9</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C64" s="4">
         <v>3</v>
@@ -13711,7 +10968,7 @@
         <v>86.2</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C65" s="4">
         <v>3</v>
@@ -13755,7 +11012,7 @@
         <v>91.81</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
@@ -13766,7 +11023,7 @@
         <v>98.82</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
@@ -13777,7 +11034,7 @@
         <v>100.81</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C71" s="4">
         <v>3</v>
@@ -13788,7 +11045,7 @@
         <v>114.2</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C72" s="4">
         <v>3</v>
@@ -13799,7 +11056,7 @@
         <v>115.01</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
@@ -13810,7 +11067,7 @@
         <v>115.11</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C74" s="4">
         <v>3</v>
@@ -13821,7 +11078,7 @@
         <v>115.91</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C75" s="4">
         <v>3</v>
@@ -13832,7 +11089,7 @@
         <v>117.5</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C76" s="4">
         <v>3</v>
@@ -13843,7 +11100,7 @@
         <v>130</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C77" s="4">
         <v>3</v>
@@ -13854,7 +11111,7 @@
         <v>136.19999999999999</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C78" s="4">
         <v>3</v>
@@ -13865,7 +11122,7 @@
         <v>320</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C79" s="4">
         <v>3</v>
@@ -13876,7 +11133,7 @@
         <v>320.10000000000002</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C80" s="4">
         <v>3</v>
@@ -13887,7 +11144,7 @@
         <v>320.2</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C81" s="4">
         <v>3</v>
@@ -13898,7 +11155,7 @@
         <v>320.3</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C82" s="4">
         <v>3</v>
@@ -13909,7 +11166,7 @@
         <v>320.7</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C83" s="4">
         <v>3</v>
@@ -13920,7 +11177,7 @@
         <v>320.81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C84" s="4">
         <v>3</v>
@@ -13931,7 +11188,7 @@
         <v>320.82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C85" s="4">
         <v>3</v>
@@ -13942,7 +11199,7 @@
         <v>320.89</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C86" s="4">
         <v>3</v>
@@ -13953,7 +11210,7 @@
         <v>321</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C87" s="4">
         <v>3</v>
@@ -13964,7 +11221,7 @@
         <v>321.10000000000002</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C88" s="4">
         <v>3</v>
@@ -13975,7 +11232,7 @@
         <v>321.3</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C89" s="4">
         <v>3</v>
@@ -13986,7 +11243,7 @@
         <v>321.39999999999998</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C90" s="4">
         <v>3</v>
@@ -13997,7 +11254,7 @@
         <v>321.8</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C91" s="4">
         <v>3</v>
@@ -14008,7 +11265,7 @@
         <v>323</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C92" s="4">
         <v>3</v>
@@ -14019,7 +11276,7 @@
         <v>323.10000000000002</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C93" s="4">
         <v>3</v>
@@ -14030,7 +11287,7 @@
         <v>323.2</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C94" s="4">
         <v>3</v>
@@ -14041,7 +11298,7 @@
         <v>323.39999999999998</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C95" s="4">
         <v>3</v>
@@ -14052,7 +11309,7 @@
         <v>323.5</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C96" s="4">
         <v>3</v>
@@ -14063,7 +11320,7 @@
         <v>323.60000000000002</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C97" s="4">
         <v>3</v>
@@ -14074,9 +11331,532 @@
         <v>323.7</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C98" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="52.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>50.1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>50.2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>50.9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>51.1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>52.7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>52.8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>52.9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>57.8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>57.9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>695</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>695.1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>695.2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>695.89</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>695.9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>692.9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>782.1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>26.9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>51.2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>51.9</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>53.2</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>53.79</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>53.8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>54</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>54.79</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>54.8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>54.9</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>55.79</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>55.8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>55.9</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>56.79</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>56.8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C39" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>56.9</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>57</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>78</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>82</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>83.2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>695.3</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>695.4</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C47" s="4">
         <v>3</v>
       </c>
     </row>
